--- a/全部记录.xlsx
+++ b/全部记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$B$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>类型</t>
   </si>
@@ -58,16 +58,22 @@
     <t>设备</t>
   </si>
   <si>
-    <t>平板，手机，电脑</t>
+    <t>平板</t>
   </si>
   <si>
     <t>手表</t>
   </si>
   <si>
+    <t>手机 语音 文字</t>
+  </si>
+  <si>
+    <t>电脑 文字</t>
+  </si>
+  <si>
     <t>软件</t>
   </si>
   <si>
-    <t>QQ，微信</t>
+    <t>QQ 语音 文字</t>
   </si>
   <si>
     <t>知乎</t>
@@ -76,13 +82,19 @@
     <t>微博</t>
   </si>
   <si>
+    <t>微信</t>
+  </si>
+  <si>
     <t>形式</t>
   </si>
   <si>
-    <t>手写</t>
-  </si>
-  <si>
-    <t>打字，扫描</t>
+    <t>手写 iPad 平板</t>
+  </si>
+  <si>
+    <t>打字 电脑 手机</t>
+  </si>
+  <si>
+    <t>扫描</t>
   </si>
   <si>
     <t>教程</t>
@@ -99,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,6 +129,74 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,112 +209,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +248,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,31 +285,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,25 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,121 +453,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,65 +483,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -564,167 +517,224 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1046,28 +1056,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="18.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="33.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="66.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="40.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="36.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="87.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="67.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="44.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.1111111111111" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7777777777778" style="1" customWidth="1"/>
+    <col min="9" max="9" width="87.7777777777778" style="1" customWidth="1"/>
+    <col min="10" max="10" width="67.5555555555556" style="1" customWidth="1"/>
+    <col min="11" max="11" width="44.5555555555556" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" customFormat="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1102,8 +1112,60 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1">
+  <autoFilter ref="A1:K5">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1116,13 +1178,20 @@
   <sheetPr/>
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5555555555556" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="84" customHeight="1" spans="1:20">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1201,12 @@
       <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1150,20 +1223,22 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+    <row r="2" customFormat="1" spans="1:20">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1180,17 +1255,19 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:20">
+    <row r="3" customFormat="1" spans="1:20">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1208,15 +1285,15 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:20">
+    <row r="4" customFormat="1" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1245,28 +1322,92 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.77777777777778" customWidth="1"/>
-    <col min="2" max="2" width="10.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="9.77777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.2222222222222" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="1" spans="1:2">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2"/>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3"/>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4"/>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5"/>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6"/>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7"/>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8"/>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9"/>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10"/>
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11"/>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12"/>
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13"/>
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14"/>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15"/>
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16"/>
+      <c r="B16"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17"/>
+      <c r="B17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1">
+  <autoFilter ref="A1:B17">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
